--- a/REGULAR/OJT/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/OJT/MABUTI, ANA MARIE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A71579-8906-49DB-BDB5-15718DE8F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="396">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1227,7 +1226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1909,7 +1908,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1926,25 +1925,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2251,33 +2250,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3288" topLeftCell="A549" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B559" sqref="B559"/>
+      <pane ySplit="3285" topLeftCell="A549" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K559" sqref="K559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2297,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2342,7 +2341,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2350,7 +2349,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2363,7 +2362,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2380,7 +2379,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2439,7 +2438,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>91</v>
       </c>
@@ -2461,7 +2460,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35982</v>
       </c>
@@ -2481,7 +2480,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36039</v>
@@ -2530,7 +2529,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36069</v>
@@ -2555,7 +2554,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -2580,7 +2579,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -2605,7 +2604,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>92</v>
       </c>
@@ -2623,7 +2622,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>36161</v>
@@ -2648,7 +2647,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36192</v>
@@ -2675,7 +2674,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>101</v>
@@ -2697,7 +2696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>102</v>
@@ -2719,7 +2718,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>103</v>
@@ -2739,7 +2738,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A19,1)</f>
         <v>36220</v>
@@ -2764,7 +2763,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" ref="A24:A35" si="1">EDATE(A23,1)</f>
         <v>36251</v>
@@ -2789,7 +2788,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>102</v>
@@ -2811,7 +2810,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f>EDATE(A24,1)</f>
         <v>36281</v>
@@ -2838,7 +2837,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>101</v>
@@ -2860,7 +2859,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>106</v>
@@ -2880,7 +2879,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A26,1)</f>
         <v>36312</v>
@@ -2905,7 +2904,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -2930,7 +2929,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -2957,7 +2956,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -2982,7 +2981,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -3007,7 +3006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -3028,7 +3027,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -3055,7 +3054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>112</v>
@@ -3075,7 +3074,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3092,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A35,1)</f>
         <v>36526</v>
@@ -3120,7 +3119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>115</v>
@@ -3140,7 +3139,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>36557</v>
@@ -3167,7 +3166,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>116</v>
@@ -3187,7 +3186,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>36586</v>
@@ -3214,7 +3213,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>117</v>
@@ -3234,7 +3233,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36617</v>
@@ -3259,7 +3258,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>104</v>
@@ -3279,7 +3278,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>36647</v>
@@ -3304,7 +3303,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>104</v>
@@ -3324,7 +3323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A46,1)</f>
         <v>36678</v>
@@ -3349,7 +3348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>102</v>
@@ -3371,7 +3370,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36708</v>
@@ -3396,7 +3395,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" ref="A51:A52" si="2">EDATE(A50,1)</f>
         <v>36739</v>
@@ -3417,7 +3416,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -3444,7 +3443,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>124</v>
@@ -3464,7 +3463,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36800</v>
@@ -3491,7 +3490,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>124</v>
@@ -3511,7 +3510,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36831</v>
@@ -3538,7 +3537,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>125</v>
@@ -3558,7 +3557,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36861</v>
@@ -3583,7 +3582,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>127</v>
@@ -3603,7 +3602,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>128</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A58,1)</f>
         <v>36892</v>
@@ -3648,7 +3647,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>102</v>
@@ -3670,7 +3669,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>129</v>
@@ -3690,7 +3689,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A61,1)</f>
         <v>36923</v>
@@ -3717,7 +3716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>102</v>
@@ -3739,7 +3738,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>130</v>
@@ -3759,7 +3758,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36951</v>
@@ -3784,7 +3783,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" ref="A68:A76" si="3">EDATE(A67,1)</f>
         <v>36982</v>
@@ -3809,7 +3808,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -3836,7 +3835,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>104</v>
@@ -3856,7 +3855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A69,1)</f>
         <v>37043</v>
@@ -3881,7 +3880,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -3908,7 +3907,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>138</v>
@@ -3928,7 +3927,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>37104</v>
@@ -3953,7 +3952,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -3978,7 +3977,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="3"/>
         <v>37165</v>
@@ -4005,7 +4004,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>101</v>
@@ -4027,7 +4026,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>95</v>
@@ -4047,7 +4046,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A76,1)</f>
         <v>37196</v>
@@ -4072,7 +4071,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>37226</v>
@@ -4099,7 +4098,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>101</v>
@@ -4121,7 +4120,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>101</v>
@@ -4143,7 +4142,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>142</v>
@@ -4163,7 +4162,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>143</v>
       </c>
@@ -4181,7 +4180,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A80,1)</f>
         <v>37257</v>
@@ -4208,7 +4207,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>145</v>
@@ -4228,7 +4227,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>37288</v>
@@ -4255,7 +4254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>146</v>
@@ -4275,7 +4274,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>37316</v>
@@ -4300,7 +4299,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="4">EDATE(A89,1)</f>
         <v>37347</v>
@@ -4327,7 +4326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>104</v>
@@ -4347,7 +4346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>149</v>
@@ -4367,7 +4366,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A90,1)</f>
         <v>37377</v>
@@ -4394,7 +4393,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>104</v>
@@ -4414,7 +4413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>102</v>
@@ -4436,7 +4435,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>152</v>
@@ -4456,7 +4455,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A93,1)</f>
         <v>37408</v>
@@ -4481,7 +4480,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="4"/>
         <v>37438</v>
@@ -4508,7 +4507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -4535,7 +4534,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -4562,7 +4561,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>101</v>
@@ -4584,7 +4583,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>37530</v>
@@ -4611,7 +4610,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -4632,7 +4631,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>37591</v>
@@ -4659,7 +4658,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>102</v>
@@ -4681,7 +4680,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>104</v>
@@ -4701,7 +4700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>101</v>
@@ -4723,7 +4722,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>102</v>
@@ -4745,7 +4744,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>157</v>
       </c>
@@ -4763,7 +4762,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A104,1)</f>
         <v>37622</v>
@@ -4790,7 +4789,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A110,1)</f>
         <v>37653</v>
@@ -4817,7 +4816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" ref="A112:A125" si="5">EDATE(A111,1)</f>
         <v>37681</v>
@@ -4838,7 +4837,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -4865,7 +4864,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>104</v>
@@ -4885,7 +4884,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37742</v>
@@ -4912,7 +4911,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>102</v>
@@ -4934,7 +4933,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -4956,7 +4955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A115,1)</f>
         <v>37773</v>
@@ -4977,7 +4976,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -4998,7 +4997,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5025,7 +5024,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5052,7 +5051,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>102</v>
@@ -5074,7 +5073,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>160</v>
@@ -5094,7 +5093,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37895</v>
@@ -5119,7 +5118,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5146,7 +5145,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>104</v>
@@ -5166,7 +5165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>104</v>
@@ -5186,7 +5185,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>161</v>
@@ -5206,7 +5205,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37956</v>
@@ -5233,7 +5232,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>164</v>
@@ -5253,7 +5252,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
         <v>165</v>
       </c>
@@ -5271,7 +5270,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>37987</v>
@@ -5298,7 +5297,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>166</v>
@@ -5318,7 +5317,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>38018</v>
@@ -5345,7 +5344,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>102</v>
@@ -5367,7 +5366,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>102</v>
@@ -5389,7 +5388,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>168</v>
@@ -5409,7 +5408,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="49"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>38047</v>
@@ -5436,7 +5435,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>102</v>
@@ -5458,7 +5457,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>169</v>
@@ -5478,7 +5477,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>38078</v>
@@ -5505,7 +5504,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>171</v>
@@ -5525,7 +5524,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38108</v>
@@ -5552,7 +5551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>172</v>
@@ -5572,7 +5571,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>174</v>
@@ -5592,7 +5591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A143,1)</f>
         <v>38139</v>
@@ -5613,7 +5612,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" ref="A147:A149" si="6">EDATE(A146,1)</f>
         <v>38169</v>
@@ -5640,7 +5639,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -5665,7 +5664,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -5692,7 +5691,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>177</v>
@@ -5712,7 +5711,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>38261</v>
@@ -5737,7 +5736,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>102</v>
@@ -5757,7 +5756,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>178</v>
@@ -5777,7 +5776,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>38292</v>
@@ -5802,7 +5801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>102</v>
@@ -5824,7 +5823,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>180</v>
@@ -5844,7 +5843,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>38322</v>
@@ -5871,7 +5870,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>181</v>
@@ -5891,7 +5890,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>183</v>
       </c>
@@ -5909,7 +5908,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A157,1)</f>
         <v>38353</v>
@@ -5930,7 +5929,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A160,1)</f>
         <v>38384</v>
@@ -5957,7 +5956,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>102</v>
@@ -5979,7 +5978,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>102</v>
@@ -6001,7 +6000,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>102</v>
@@ -6023,7 +6022,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A161,1)</f>
         <v>38412</v>
@@ -6050,7 +6049,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>101</v>
@@ -6072,7 +6071,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>38443</v>
@@ -6099,7 +6098,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>104</v>
@@ -6119,7 +6118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38473</v>
@@ -6146,7 +6145,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>89</v>
@@ -6168,7 +6167,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>102</v>
@@ -6190,7 +6189,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>38504</v>
@@ -6217,7 +6216,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>86</v>
@@ -6239,7 +6238,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>111</v>
@@ -6261,7 +6260,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>174</v>
@@ -6281,7 +6280,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A172,1)</f>
         <v>38534</v>
@@ -6302,7 +6301,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" ref="A177:A180" si="7">EDATE(A176,1)</f>
         <v>38565</v>
@@ -6323,7 +6322,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -6350,7 +6349,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -6377,7 +6376,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -6404,7 +6403,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>102</v>
@@ -6426,7 +6425,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>101</v>
@@ -6448,7 +6447,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>104</v>
@@ -6468,7 +6467,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A180,1)</f>
         <v>38687</v>
@@ -6489,7 +6488,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
         <v>191</v>
       </c>
@@ -6507,7 +6506,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38718</v>
@@ -6534,7 +6533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>192</v>
@@ -6554,7 +6553,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>38749</v>
@@ -6581,7 +6580,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>134</v>
@@ -6603,7 +6602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>194</v>
@@ -6623,7 +6622,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A188,1)</f>
         <v>38777</v>
@@ -6648,7 +6647,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A201" si="8">EDATE(A191,1)</f>
         <v>38808</v>
@@ -6675,7 +6674,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>102</v>
@@ -6697,7 +6696,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>102</v>
@@ -6717,7 +6716,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>197</v>
@@ -6737,7 +6736,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A192,1)</f>
         <v>38838</v>
@@ -6764,7 +6763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>198</v>
@@ -6784,7 +6783,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>111</v>
@@ -6806,7 +6805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>199</v>
@@ -6826,7 +6825,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A196,1)</f>
         <v>38869</v>
@@ -6851,7 +6850,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6876,7 +6875,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>134</v>
@@ -6898,7 +6897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38930</v>
@@ -6925,7 +6924,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>205</v>
@@ -6945,7 +6944,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>134</v>
@@ -6967,7 +6966,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A203,1)</f>
         <v>38961</v>
@@ -6994,7 +6993,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>134</v>
@@ -7016,7 +7015,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>84</v>
@@ -7038,7 +7037,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>207</v>
@@ -7058,7 +7057,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A206,1)</f>
         <v>38991</v>
@@ -7085,7 +7084,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>134</v>
@@ -7107,7 +7106,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -7127,7 +7126,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>102</v>
@@ -7149,7 +7148,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>211</v>
@@ -7169,7 +7168,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A210,1)</f>
         <v>39022</v>
@@ -7194,7 +7193,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A215,1)</f>
         <v>39052</v>
@@ -7219,7 +7218,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>184</v>
@@ -7241,7 +7240,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>217</v>
       </c>
@@ -7259,7 +7258,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A216,1)</f>
         <v>39083</v>
@@ -7284,7 +7283,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>184</v>
@@ -7306,7 +7305,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A219,1)</f>
         <v>39114</v>
@@ -7331,7 +7330,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>219</v>
@@ -7353,7 +7352,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>221</v>
@@ -7373,7 +7372,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>39142</v>
@@ -7400,7 +7399,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>104</v>
@@ -7420,7 +7419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>223</v>
@@ -7440,7 +7439,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>219</v>
@@ -7462,7 +7461,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A224,1)</f>
         <v>39173</v>
@@ -7487,7 +7486,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>134</v>
@@ -7509,7 +7508,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39203</v>
@@ -7536,7 +7535,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>228</v>
@@ -7556,7 +7555,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>184</v>
@@ -7578,7 +7577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A230,1)</f>
         <v>39234</v>
@@ -7603,7 +7602,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>184</v>
@@ -7625,7 +7624,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39264</v>
@@ -7652,7 +7651,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" ref="A236:A240" si="9">EDATE(A235,1)</f>
         <v>39295</v>
@@ -7679,7 +7678,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>232</v>
@@ -7699,7 +7698,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A236,1)</f>
         <v>39326</v>
@@ -7720,7 +7719,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -7741,7 +7740,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -7768,7 +7767,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>104</v>
@@ -7788,7 +7787,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39417</v>
@@ -7815,7 +7814,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>235</v>
@@ -7835,7 +7834,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>104</v>
@@ -7855,7 +7854,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>237</v>
       </c>
@@ -7873,7 +7872,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A242,1)</f>
         <v>39448</v>
@@ -7898,7 +7897,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>239</v>
@@ -7918,7 +7917,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>39479</v>
@@ -7943,7 +7942,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" ref="A249:A250" si="10">EDATE(A248,1)</f>
         <v>39508</v>
@@ -7968,7 +7967,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39539</v>
@@ -7993,7 +7992,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>242</v>
@@ -8013,7 +8012,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39569</v>
@@ -8040,7 +8039,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>242</v>
@@ -8060,7 +8059,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>243</v>
@@ -8080,7 +8079,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A252,1)</f>
         <v>39600</v>
@@ -8105,7 +8104,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>244</v>
@@ -8125,7 +8124,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39630</v>
@@ -8152,7 +8151,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>239</v>
@@ -8172,7 +8171,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>245</v>
@@ -8192,7 +8191,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>39661</v>
@@ -8217,7 +8216,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>98</v>
@@ -8237,7 +8236,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39692</v>
@@ -8264,7 +8263,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>247</v>
@@ -8284,7 +8283,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>248</v>
@@ -8304,7 +8303,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A262,1)</f>
         <v>39722</v>
@@ -8331,7 +8330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>102</v>
@@ -8353,7 +8352,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>104</v>
@@ -8373,7 +8372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>249</v>
@@ -8393,7 +8392,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>250</v>
@@ -8413,7 +8412,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A265,1)</f>
         <v>39753</v>
@@ -8438,7 +8437,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>234</v>
@@ -8460,7 +8459,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>126</v>
@@ -8482,7 +8481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>242</v>
@@ -8502,7 +8501,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>253</v>
@@ -8522,7 +8521,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A270,1)</f>
         <v>39783</v>
@@ -8547,7 +8546,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>119</v>
@@ -8567,7 +8566,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
         <v>257</v>
       </c>
@@ -8585,7 +8584,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A275,1)</f>
         <v>39814</v>
@@ -8606,7 +8605,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A278,1)</f>
         <v>39845</v>
@@ -8633,7 +8632,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" ref="A280:A289" si="11">EDATE(A279,1)</f>
         <v>39873</v>
@@ -8654,7 +8653,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39904</v>
@@ -8675,7 +8674,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="11"/>
         <v>39934</v>
@@ -8702,7 +8701,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="11"/>
         <v>39965</v>
@@ -8723,7 +8722,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -8750,7 +8749,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>259</v>
@@ -8772,7 +8771,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>104</v>
@@ -8792,7 +8791,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>101</v>
@@ -8814,7 +8813,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A284,1)</f>
         <v>40026</v>
@@ -8841,7 +8840,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -8868,7 +8867,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -8890,7 +8889,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>262</v>
@@ -8910,7 +8909,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>40087</v>
@@ -8937,7 +8936,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>102</v>
@@ -8959,7 +8958,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>104</v>
@@ -8979,7 +8978,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>234</v>
@@ -9001,7 +9000,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>264</v>
@@ -9021,7 +9020,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A292,1)</f>
         <v>40118</v>
@@ -9048,7 +9047,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>102</v>
@@ -9070,7 +9069,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>267</v>
@@ -9090,7 +9089,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>40148</v>
@@ -9115,7 +9114,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="47" t="s">
         <v>269</v>
       </c>
@@ -9133,7 +9132,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>40179</v>
@@ -9158,7 +9157,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A302,1)</f>
         <v>40210</v>
@@ -9185,7 +9184,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>104</v>
@@ -9205,7 +9204,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>102</v>
@@ -9227,7 +9226,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>270</v>
@@ -9247,7 +9246,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A303,1)</f>
         <v>40238</v>
@@ -9274,7 +9273,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>271</v>
@@ -9294,7 +9293,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40269</v>
@@ -9321,7 +9320,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>102</v>
@@ -9343,7 +9342,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>272</v>
@@ -9363,7 +9362,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40299</v>
@@ -9390,7 +9389,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>84</v>
@@ -9412,7 +9411,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>102</v>
@@ -9434,7 +9433,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>102</v>
@@ -9456,7 +9455,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>274</v>
@@ -9476,7 +9475,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A312,1)</f>
         <v>40330</v>
@@ -9501,7 +9500,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" ref="A318:A323" si="12">EDATE(A317,1)</f>
         <v>40360</v>
@@ -9526,7 +9525,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -9551,7 +9550,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="12"/>
         <v>40422</v>
@@ -9576,7 +9575,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -9601,7 +9600,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A321,1)</f>
         <v>40483</v>
@@ -9626,7 +9625,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="12"/>
         <v>40513</v>
@@ -9651,7 +9650,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="47" t="s">
         <v>280</v>
       </c>
@@ -9669,7 +9668,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40544</v>
@@ -9694,7 +9693,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A325,1)</f>
         <v>40575</v>
@@ -9719,7 +9718,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" ref="A327:A336" si="13">EDATE(A326,1)</f>
         <v>40603</v>
@@ -9744,7 +9743,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="13"/>
         <v>40634</v>
@@ -9765,7 +9764,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A328,1)</f>
         <v>40664</v>
@@ -9792,7 +9791,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>284</v>
@@ -9814,7 +9813,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40695</v>
@@ -9839,7 +9838,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -9864,7 +9863,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -9889,7 +9888,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -9914,7 +9913,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="13"/>
         <v>40817</v>
@@ -9939,7 +9938,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -9964,7 +9963,7 @@
       <c r="J336" s="12"/>
       <c r="K336" s="15"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>40878</v>
@@ -9991,7 +9990,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>293</v>
@@ -10011,7 +10010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>104</v>
@@ -10031,7 +10030,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>294</v>
@@ -10051,7 +10050,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>297</v>
       </c>
@@ -10069,7 +10068,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A337,1)</f>
         <v>40909</v>
@@ -10094,7 +10093,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>40940</v>
@@ -10119,7 +10118,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" ref="A344:A369" si="14">EDATE(A343,1)</f>
         <v>40969</v>
@@ -10146,7 +10145,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>134</v>
@@ -10168,7 +10167,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>301</v>
@@ -10188,7 +10187,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="49"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A344,1)</f>
         <v>41000</v>
@@ -10215,7 +10214,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>302</v>
@@ -10235,7 +10234,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>41030</v>
@@ -10262,7 +10261,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>293</v>
@@ -10282,7 +10281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>104</v>
@@ -10302,7 +10301,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>304</v>
@@ -10322,7 +10321,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A349,1)</f>
         <v>41061</v>
@@ -10347,7 +10346,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -10374,7 +10373,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>102</v>
@@ -10396,7 +10395,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>89</v>
@@ -10418,7 +10417,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>102</v>
@@ -10440,7 +10439,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>102</v>
@@ -10462,7 +10461,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>306</v>
@@ -10482,7 +10481,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A354,1)</f>
         <v>41122</v>
@@ -10509,7 +10508,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>102</v>
@@ -10531,7 +10530,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>308</v>
@@ -10551,7 +10550,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A360,1)</f>
         <v>41153</v>
@@ -10578,7 +10577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>309</v>
@@ -10598,7 +10597,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>41183</v>
@@ -10625,7 +10624,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>102</v>
@@ -10647,7 +10646,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>311</v>
@@ -10667,7 +10666,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="49"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>41214</v>
@@ -10692,7 +10691,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -10717,7 +10716,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="47" t="s">
         <v>314</v>
       </c>
@@ -10735,7 +10734,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>41275</v>
@@ -10760,7 +10759,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A371,1)</f>
         <v>41306</v>
@@ -10785,7 +10784,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>316</v>
@@ -10805,7 +10804,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41334</v>
@@ -10832,7 +10831,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>104</v>
@@ -10852,7 +10851,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>317</v>
@@ -10872,7 +10871,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>41365</v>
@@ -10899,7 +10898,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>102</v>
@@ -10921,7 +10920,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>319</v>
@@ -10941,7 +10940,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>41395</v>
@@ -10968,7 +10967,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>134</v>
@@ -10990,7 +10989,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>321</v>
@@ -11010,7 +11009,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>41426</v>
@@ -11035,7 +11034,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" ref="A384:A394" si="15">EDATE(A383,1)</f>
         <v>41456</v>
@@ -11062,7 +11061,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>324</v>
@@ -11082,7 +11081,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>41487</v>
@@ -11109,7 +11108,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>326</v>
@@ -11129,7 +11128,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="49"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>134</v>
@@ -11151,7 +11150,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A386,1)</f>
         <v>41518</v>
@@ -11176,7 +11175,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>102</v>
@@ -11198,7 +11197,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>41548</v>
@@ -11225,7 +11224,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>328</v>
@@ -11245,7 +11244,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>41579</v>
@@ -11270,7 +11269,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -11295,7 +11294,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>98</v>
@@ -11315,7 +11314,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>330</v>
       </c>
@@ -11333,7 +11332,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A394,1)</f>
         <v>41640</v>
@@ -11358,7 +11357,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>41671</v>
@@ -11383,7 +11382,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A411" si="16">EDATE(A398,1)</f>
         <v>41699</v>
@@ -11408,7 +11407,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -11433,7 +11432,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>248</v>
@@ -11453,7 +11452,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41760</v>
@@ -11480,7 +11479,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>333</v>
@@ -11500,7 +11499,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41791</v>
@@ -11525,7 +11524,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -11552,7 +11551,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>334</v>
@@ -11572,7 +11571,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>41852</v>
@@ -11599,7 +11598,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>336</v>
@@ -11619,7 +11618,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>41883</v>
@@ -11644,7 +11643,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -11669,7 +11668,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -11694,7 +11693,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A411,1)</f>
         <v>41974</v>
@@ -11719,7 +11718,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
         <v>342</v>
       </c>
@@ -11737,7 +11736,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>42005</v>
@@ -11762,7 +11761,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A414,1)</f>
         <v>42036</v>
@@ -11787,7 +11786,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" ref="A416:A429" si="17">EDATE(A415,1)</f>
         <v>42064</v>
@@ -11812,7 +11811,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A416,1)</f>
         <v>42095</v>
@@ -11837,7 +11836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>111</v>
@@ -11859,7 +11858,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>346</v>
@@ -11879,7 +11878,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A417,1)</f>
         <v>42125</v>
@@ -11906,7 +11905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>347</v>
@@ -11926,7 +11925,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A420,1)</f>
         <v>42156</v>
@@ -11953,7 +11952,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>348</v>
@@ -11973,7 +11972,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>42186</v>
@@ -11998,7 +11997,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -12025,7 +12024,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>350</v>
@@ -12045,7 +12044,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A425,1)</f>
         <v>42248</v>
@@ -12070,7 +12069,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -12095,7 +12094,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -12122,7 +12121,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>352</v>
@@ -12142,7 +12141,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>42339</v>
@@ -12167,7 +12166,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="47" t="s">
         <v>360</v>
       </c>
@@ -12185,7 +12184,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42370</v>
@@ -12212,7 +12211,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>362</v>
@@ -12234,7 +12233,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>363</v>
@@ -12254,7 +12253,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A433,1)</f>
         <v>42401</v>
@@ -12279,7 +12278,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" ref="A437:A446" si="18">EDATE(A436,1)</f>
         <v>42430</v>
@@ -12304,7 +12303,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -12329,7 +12328,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -12354,7 +12353,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="18"/>
         <v>42522</v>
@@ -12379,7 +12378,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -12404,7 +12403,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -12429,7 +12428,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -12454,7 +12453,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="18"/>
         <v>42644</v>
@@ -12479,7 +12478,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -12504,7 +12503,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -12531,7 +12530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>377</v>
@@ -12551,7 +12550,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="47" t="s">
         <v>361</v>
       </c>
@@ -12569,7 +12568,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A446,1)</f>
         <v>42736</v>
@@ -12594,7 +12593,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A449,1)</f>
         <v>42767</v>
@@ -12619,7 +12618,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" ref="A451:A467" si="19">EDATE(A450,1)</f>
         <v>42795</v>
@@ -12644,7 +12643,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="19"/>
         <v>42826</v>
@@ -12669,7 +12668,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -12696,7 +12695,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>381</v>
@@ -12716,7 +12715,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f>EDATE(A453,1)</f>
         <v>42887</v>
@@ -12741,7 +12740,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -12766,7 +12765,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>219</v>
@@ -12788,7 +12787,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>104</v>
@@ -12808,7 +12807,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>102</v>
@@ -12830,7 +12829,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>102</v>
@@ -12852,7 +12851,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>387</v>
@@ -12872,7 +12871,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="49"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A456,1)</f>
         <v>42948</v>
@@ -12897,7 +12896,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -12922,7 +12921,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -12947,7 +12946,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>390</v>
@@ -12967,7 +12966,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>43040</v>
@@ -12994,7 +12993,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -13015,7 +13014,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13031,7 +13030,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="47" t="s">
         <v>44</v>
       </c>
@@ -13049,7 +13048,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43101</v>
       </c>
@@ -13069,7 +13068,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43132</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>46</v>
@@ -13115,7 +13114,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>46</v>
@@ -13137,7 +13136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>47</v>
@@ -13159,7 +13158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>48</v>
@@ -13179,7 +13178,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43160</v>
       </c>
@@ -13199,7 +13198,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43191</v>
       </c>
@@ -13219,7 +13218,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43221</v>
       </c>
@@ -13239,7 +13238,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43252</v>
       </c>
@@ -13259,7 +13258,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43282</v>
       </c>
@@ -13279,7 +13278,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43344</v>
       </c>
@@ -13325,7 +13324,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43344</v>
       </c>
@@ -13345,7 +13344,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43374</v>
       </c>
@@ -13365,7 +13364,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43405</v>
       </c>
@@ -13385,7 +13384,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43435</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>393</v>
@@ -13431,7 +13430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>48</v>
@@ -13451,7 +13450,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>48</v>
@@ -13471,7 +13470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>54</v>
@@ -13493,7 +13492,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="47" t="s">
         <v>58</v>
       </c>
@@ -13511,7 +13510,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43466</v>
       </c>
@@ -13531,7 +13530,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -13551,7 +13550,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43525</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>47</v>
@@ -13595,7 +13594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>48</v>
@@ -13617,7 +13616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -13637,7 +13636,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43586</v>
       </c>
@@ -13657,7 +13656,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43617</v>
       </c>
@@ -13677,7 +13676,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43647</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>392</v>
@@ -13725,7 +13724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43678</v>
       </c>
@@ -13745,7 +13744,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43709</v>
       </c>
@@ -13769,7 +13768,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>393</v>
@@ -13791,7 +13790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43739</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>46</v>
@@ -13837,7 +13836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43770</v>
       </c>
@@ -13857,7 +13856,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43800</v>
       </c>
@@ -13883,7 +13882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>393</v>
@@ -13905,7 +13904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -13925,7 +13924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="47" t="s">
         <v>70</v>
       </c>
@@ -13943,7 +13942,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43831</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43862</v>
       </c>
@@ -13987,7 +13986,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43891</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43922</v>
       </c>
@@ -14033,7 +14032,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43952</v>
       </c>
@@ -14053,7 +14052,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43983</v>
       </c>
@@ -14073,7 +14072,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44013</v>
       </c>
@@ -14093,7 +14092,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44044</v>
       </c>
@@ -14113,7 +14112,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44075</v>
       </c>
@@ -14133,7 +14132,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44105</v>
       </c>
@@ -14153,7 +14152,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44136</v>
       </c>
@@ -14173,7 +14172,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44166</v>
       </c>
@@ -14197,7 +14196,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="47" t="s">
         <v>74</v>
       </c>
@@ -14215,7 +14214,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44197</v>
       </c>
@@ -14235,7 +14234,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44228</v>
       </c>
@@ -14255,7 +14254,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44256</v>
       </c>
@@ -14275,7 +14274,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44287</v>
       </c>
@@ -14295,7 +14294,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44317</v>
       </c>
@@ -14315,7 +14314,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44348</v>
       </c>
@@ -14335,7 +14334,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44378</v>
       </c>
@@ -14355,7 +14354,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44409</v>
       </c>
@@ -14379,7 +14378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>76</v>
@@ -14399,7 +14398,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="47" t="s">
         <v>78</v>
       </c>
@@ -14417,7 +14416,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44562</v>
       </c>
@@ -14437,7 +14436,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44593</v>
       </c>
@@ -14457,7 +14456,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -14477,7 +14476,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44652</v>
       </c>
@@ -14497,7 +14496,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44682</v>
       </c>
@@ -14517,7 +14516,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44713</v>
       </c>
@@ -14537,7 +14536,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44743</v>
       </c>
@@ -14557,7 +14556,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44774</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -14601,7 +14600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>48</v>
@@ -14621,7 +14620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44805</v>
       </c>
@@ -14647,7 +14646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>83</v>
@@ -14669,7 +14668,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>83</v>
@@ -14691,7 +14690,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>47</v>
@@ -14713,7 +14712,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44835</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44866</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44896</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="47" t="s">
         <v>391</v>
       </c>
@@ -14809,7 +14808,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44927</v>
       </c>
@@ -14829,7 +14828,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44958</v>
       </c>
@@ -14849,7 +14848,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44986</v>
       </c>
@@ -14869,7 +14868,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45017</v>
       </c>
@@ -14889,7 +14888,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45047</v>
       </c>
@@ -14909,7 +14908,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45078</v>
       </c>
@@ -14933,11 +14932,13 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45108</v>
       </c>
-      <c r="B559" s="20"/>
+      <c r="B559" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
@@ -14949,9 +14950,11 @@
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K559" s="48">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45139</v>
       </c>
@@ -14969,7 +14972,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45170</v>
       </c>
@@ -14987,7 +14990,7 @@
       <c r="J561" s="12"/>
       <c r="K561" s="15"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45200</v>
       </c>
@@ -15005,7 +15008,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45231</v>
       </c>
@@ -15023,7 +15026,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45261</v>
       </c>
@@ -15041,7 +15044,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45292</v>
       </c>
@@ -15059,7 +15062,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45323</v>
       </c>
@@ -15077,7 +15080,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45352</v>
       </c>
@@ -15095,7 +15098,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45383</v>
       </c>
@@ -15113,7 +15116,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45413</v>
       </c>
@@ -15131,7 +15134,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45444</v>
       </c>
@@ -15149,7 +15152,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45474</v>
       </c>
@@ -15167,7 +15170,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45505</v>
       </c>
@@ -15185,7 +15188,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45536</v>
       </c>
@@ -15203,7 +15206,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45566</v>
       </c>
@@ -15221,7 +15224,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45597</v>
       </c>
@@ -15254,10 +15257,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15280,28 +15283,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -15314,7 +15317,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15343,7 +15346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -15365,17 +15368,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15396,7 +15399,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15449,7 +15452,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15501,7 +15504,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15527,7 +15530,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15553,7 +15556,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15579,7 +15582,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15605,7 +15608,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15625,7 +15628,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15645,7 +15648,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15686,7 +15689,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15728,7 +15731,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15770,7 +15773,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15791,7 +15794,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15833,7 +15836,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15854,7 +15857,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15896,7 +15899,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15938,7 +15941,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15980,7 +15983,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16022,7 +16025,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16064,7 +16067,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16085,7 +16088,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16094,7 +16097,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16103,7 +16106,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16112,7 +16115,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16121,7 +16124,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16130,7 +16133,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16139,7 +16142,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16148,7 +16151,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16157,7 +16160,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16166,7 +16169,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16175,7 +16178,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16184,7 +16187,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16193,7 +16196,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16202,7 +16205,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16211,7 +16214,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16220,7 +16223,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16229,7 +16232,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16238,7 +16241,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16247,7 +16250,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16256,7 +16259,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16265,7 +16268,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16274,7 +16277,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16283,7 +16286,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16292,7 +16295,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16301,7 +16304,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16310,7 +16313,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16319,7 +16322,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16328,7 +16331,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16337,7 +16340,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16346,7 +16349,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
